--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -724,7 +724,7 @@
     <t>SourceClassificationTag</t>
   </si>
   <si>
-    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+    <t>Identifies the origin of this FHIR resource, from either a source system of record or derived from a process</t>
   </si>
   <si>
     <t>Contract.meta.tag.id</t>
@@ -748,7 +748,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for an FFV initiative record</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for an FFV initiative record</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -406,7 +406,7 @@
     <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
   </si>
   <si>
     <t>processName</t>
@@ -419,7 +419,7 @@
     <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
   </si>
   <si>
     <t>processVersion</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3386,37 +3386,37 @@
     <col min="1" max="1" width="50.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="156.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="156.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="127.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="127.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="50.50390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ffv-initative-resource.xlsx
+++ b/StructureDefinition-ffv-initative-resource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,52 +268,56 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Contract.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Contract.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Contract.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Contract.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -599,10 +603,6 @@
   </si>
   <si>
     <t>Contract.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -3884,13 +3884,13 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3941,7 +3941,7 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
@@ -3959,7 +3959,7 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>73</v>
@@ -3967,11 +3967,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -3990,16 +3990,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -4037,19 +4037,19 @@
         <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
@@ -4061,13 +4061,13 @@
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>73</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>73</v>
@@ -4100,13 +4100,13 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -4157,7 +4157,7 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
@@ -4169,7 +4169,7 @@
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>73</v>
@@ -4208,13 +4208,13 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4265,7 +4265,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -4277,7 +4277,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>73</v>
@@ -4316,13 +4316,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4373,7 +4373,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -4385,7 +4385,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -4424,13 +4424,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4481,7 +4481,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -4493,7 +4493,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
@@ -4532,13 +4532,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4589,7 +4589,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -4601,7 +4601,7 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>73</v>
@@ -4640,13 +4640,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4697,7 +4697,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -4709,7 +4709,7 @@
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -4723,10 +4723,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>73</v>
@@ -4748,13 +4748,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4805,7 +4805,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -4817,7 +4817,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
@@ -4856,13 +4856,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4913,7 +4913,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -4925,7 +4925,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4939,10 +4939,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -4964,13 +4964,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -5021,7 +5021,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -5033,7 +5033,7 @@
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>73</v>
@@ -5072,13 +5072,13 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -5129,7 +5129,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -5141,7 +5141,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>73</v>
@@ -5180,13 +5180,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -5237,7 +5237,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -5249,7 +5249,7 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>73</v>
@@ -5288,13 +5288,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5345,7 +5345,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -5357,7 +5357,7 @@
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>73</v>
@@ -5396,13 +5396,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5453,7 +5453,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -5465,7 +5465,7 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -5504,13 +5504,13 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5561,7 +5561,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -5573,7 +5573,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5610,13 +5610,13 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5667,7 +5667,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -5685,7 +5685,7 @@
         <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5716,13 +5716,13 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5761,19 +5761,19 @@
         <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -5785,7 +5785,7 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5822,16 +5822,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>73</v>
@@ -5881,7 +5881,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>82</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5930,13 +5930,13 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5975,17 +5975,17 @@
         <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -6011,10 +6011,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
@@ -6036,13 +6036,13 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -6069,11 +6069,11 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -6091,7 +6091,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>73</v>
@@ -6142,13 +6142,13 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -6199,7 +6199,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -6211,7 +6211,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -6225,10 +6225,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>73</v>
@@ -6250,13 +6250,13 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -6307,7 +6307,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -6319,7 +6319,7 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -6356,7 +6356,7 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>187</v>
@@ -6572,7 +6572,7 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>198</v>
@@ -6931,7 +6931,7 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>221</v>
@@ -6950,7 +6950,7 @@
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>224</v>
@@ -7039,7 +7039,7 @@
         <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>221</v>
@@ -7112,13 +7112,13 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -7169,7 +7169,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -7187,7 +7187,7 @@
         <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -7218,16 +7218,16 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -7265,19 +7265,19 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -7289,13 +7289,13 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -7326,7 +7326,7 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>230</v>
@@ -7436,7 +7436,7 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>238</v>
@@ -7650,7 +7650,7 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>253</v>
@@ -7868,7 +7868,7 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>267</v>
@@ -8300,13 +8300,13 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8345,14 +8345,14 @@
         <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>296</v>
@@ -8367,7 +8367,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -8475,7 +8475,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
@@ -8583,7 +8583,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
@@ -8691,7 +8691,7 @@
         <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8728,7 +8728,7 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>307</v>
@@ -8737,7 +8737,7 @@
         <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>309</v>
@@ -8801,7 +8801,7 @@
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -8894,7 +8894,7 @@
         <v>83</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>311</v>
@@ -9056,13 +9056,13 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -9113,7 +9113,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -9131,7 +9131,7 @@
         <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -9162,16 +9162,16 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -9209,19 +9209,19 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -9233,13 +9233,13 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -9380,7 +9380,7 @@
         <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>333</v>
@@ -9490,7 +9490,7 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>342</v>
@@ -9600,7 +9600,7 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>350</v>
@@ -10032,13 +10032,13 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -10089,7 +10089,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -10107,7 +10107,7 @@
         <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -10138,16 +10138,16 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -10185,19 +10185,19 @@
         <v>73</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -10209,13 +10209,13 @@
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -10356,7 +10356,7 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>333</v>
@@ -10466,7 +10466,7 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>342</v>
@@ -10576,7 +10576,7 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>350</v>
@@ -10898,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>372</v>
@@ -11008,7 +11008,7 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>377</v>
@@ -11228,7 +11228,7 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>392</v>
@@ -11442,7 +11442,7 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>402</v>
@@ -11548,7 +11548,7 @@
         <v>73</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>405</v>
@@ -11583,7 +11583,7 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>408</v>
@@ -11872,7 +11872,7 @@
         <v>73</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>426</v>
@@ -11905,7 +11905,7 @@
         <v>73</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>428</v>
@@ -12410,7 +12410,7 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>455</v>
@@ -12520,7 +12520,7 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>460</v>
@@ -12626,7 +12626,7 @@
         <v>73</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>463</v>
@@ -12732,7 +12732,7 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>466</v>
@@ -12944,7 +12944,7 @@
         <v>73</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>473</v>
@@ -12977,7 +12977,7 @@
         <v>73</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X89" t="s" s="2">
         <v>475</v>
@@ -13158,7 +13158,7 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>483</v>
@@ -13191,7 +13191,7 @@
         <v>73</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>485</v>
@@ -13264,7 +13264,7 @@
         <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>490</v>
@@ -13297,7 +13297,7 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>492</v>
@@ -13476,13 +13476,13 @@
         <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13533,7 +13533,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -13551,7 +13551,7 @@
         <v>73</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>73</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13582,16 +13582,16 @@
         <v>73</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13641,7 +13641,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -13653,13 +13653,13 @@
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>73</v>
@@ -13690,7 +13690,7 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>503</v>
@@ -13699,7 +13699,7 @@
         <v>504</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>309</v>
@@ -13763,7 +13763,7 @@
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -13800,7 +13800,7 @@
         <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>507</v>
@@ -13833,7 +13833,7 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X97" t="s" s="2">
         <v>509</v>
@@ -13906,7 +13906,7 @@
         <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>512</v>
@@ -13939,7 +13939,7 @@
         <v>73</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>514</v>
@@ -14542,13 +14542,13 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14599,7 +14599,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -14617,7 +14617,7 @@
         <v>73</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>73</v>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14648,16 +14648,16 @@
         <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14707,7 +14707,7 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -14719,13 +14719,13 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>73</v>
@@ -14756,7 +14756,7 @@
         <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>503</v>
@@ -14765,7 +14765,7 @@
         <v>504</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>309</v>
@@ -14829,7 +14829,7 @@
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -15290,7 +15290,7 @@
         <v>73</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>556</v>
@@ -15323,7 +15323,7 @@
         <v>73</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X111" t="s" s="2">
         <v>558</v>
@@ -15396,7 +15396,7 @@
         <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>562</v>
@@ -15429,7 +15429,7 @@
         <v>73</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>564</v>
@@ -15502,7 +15502,7 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>568</v>
@@ -15716,13 +15716,13 @@
         <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15773,7 +15773,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -15791,7 +15791,7 @@
         <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>73</v>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15822,16 +15822,16 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15881,7 +15881,7 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -15893,13 +15893,13 @@
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>73</v>
@@ -15930,7 +15930,7 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>503</v>
@@ -15939,7 +15939,7 @@
         <v>504</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>309</v>
@@ -16003,7 +16003,7 @@
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -16179,7 +16179,7 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X119" t="s" s="2">
         <v>584</v>
@@ -16285,7 +16285,7 @@
         <v>73</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X120" t="s" s="2">
         <v>589</v>
@@ -16391,7 +16391,7 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>594</v>
@@ -16570,13 +16570,13 @@
         <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16627,7 +16627,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -16645,7 +16645,7 @@
         <v>73</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>73</v>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16676,16 +16676,16 @@
         <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16735,7 +16735,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16747,13 +16747,13 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>73</v>
@@ -16784,7 +16784,7 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>503</v>
@@ -16793,7 +16793,7 @@
         <v>504</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>309</v>
@@ -16857,7 +16857,7 @@
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -17106,13 +17106,13 @@
         <v>73</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17163,7 +17163,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -17181,7 +17181,7 @@
         <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>73</v>
@@ -17193,7 +17193,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17212,16 +17212,16 @@
         <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17271,7 +17271,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -17283,13 +17283,13 @@
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>73</v>
@@ -17320,7 +17320,7 @@
         <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>503</v>
@@ -17329,7 +17329,7 @@
         <v>504</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>309</v>
@@ -17393,7 +17393,7 @@
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -17536,7 +17536,7 @@
         <v>73</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>616</v>
@@ -17569,7 +17569,7 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>618</v>
@@ -17752,7 +17752,7 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>628</v>
@@ -17785,7 +17785,7 @@
         <v>73</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>558</v>
@@ -17858,7 +17858,7 @@
         <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>631</v>
@@ -17966,7 +17966,7 @@
         <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>638</v>
@@ -17999,7 +17999,7 @@
         <v>73</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X136" t="s" s="2">
         <v>640</v>
@@ -18178,13 +18178,13 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18235,7 +18235,7 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -18253,7 +18253,7 @@
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>73</v>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18284,16 +18284,16 @@
         <v>73</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18343,7 +18343,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -18355,13 +18355,13 @@
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>73</v>
@@ -18392,7 +18392,7 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>503</v>
@@ -18401,7 +18401,7 @@
         <v>504</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>309</v>
@@ -18465,7 +18465,7 @@
         <v>73</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>73</v>
@@ -18608,7 +18608,7 @@
         <v>73</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>653</v>
@@ -18714,7 +18714,7 @@
         <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>657</v>
@@ -19032,13 +19032,13 @@
         <v>73</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -19089,7 +19089,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -19107,7 +19107,7 @@
         <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>73</v>
@@ -19119,7 +19119,7 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19138,16 +19138,16 @@
         <v>73</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -19197,7 +19197,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -19209,13 +19209,13 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>73</v>
@@ -19246,7 +19246,7 @@
         <v>83</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>503</v>
@@ -19255,7 +19255,7 @@
         <v>504</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N148" t="s" s="2">
         <v>309</v>
@@ -19319,7 +19319,7 @@
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>73</v>
@@ -19356,7 +19356,7 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>671</v>
@@ -19389,7 +19389,7 @@
         <v>73</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>673</v>
@@ -19462,7 +19462,7 @@
         <v>73</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>676</v>
@@ -19495,7 +19495,7 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>678</v>
@@ -19674,7 +19674,7 @@
         <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>684</v>
@@ -19707,7 +19707,7 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X152" t="s" s="2">
         <v>686</v>
@@ -19992,13 +19992,13 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -20049,7 +20049,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -20067,7 +20067,7 @@
         <v>73</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>73</v>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20098,16 +20098,16 @@
         <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20157,7 +20157,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -20169,13 +20169,13 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>73</v>
@@ -20206,7 +20206,7 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>503</v>
@@ -20215,7 +20215,7 @@
         <v>504</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>309</v>
@@ -20279,7 +20279,7 @@
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>73</v>
@@ -20422,7 +20422,7 @@
         <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>704</v>
@@ -20455,7 +20455,7 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X159" t="s" s="2">
         <v>706</v>
@@ -20528,7 +20528,7 @@
         <v>73</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>709</v>
@@ -20634,7 +20634,7 @@
         <v>73</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>712</v>
@@ -20740,7 +20740,7 @@
         <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>715</v>
@@ -20773,7 +20773,7 @@
         <v>73</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X162" t="s" s="2">
         <v>717</v>
@@ -21058,7 +21058,7 @@
         <v>73</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>728</v>
@@ -21164,7 +21164,7 @@
         <v>73</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>731</v>
@@ -21588,13 +21588,13 @@
         <v>73</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21645,7 +21645,7 @@
         <v>73</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -21663,7 +21663,7 @@
         <v>73</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>73</v>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21694,16 +21694,16 @@
         <v>73</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -21753,7 +21753,7 @@
         <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21765,13 +21765,13 @@
         <v>73</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>73</v>
@@ -21802,7 +21802,7 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>503</v>
@@ -21811,7 +21811,7 @@
         <v>504</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>309</v>
@@ -21875,7 +21875,7 @@
         <v>73</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>73</v>
@@ -22760,7 +22760,7 @@
         <v>73</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>782</v>
@@ -23184,7 +23184,7 @@
         <v>73</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>795</v>
@@ -23506,13 +23506,13 @@
         <v>73</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -23563,7 +23563,7 @@
         <v>73</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>74</v>
@@ -23581,7 +23581,7 @@
         <v>73</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>73</v>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -23612,16 +23612,16 @@
         <v>73</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
@@ -23671,7 +23671,7 @@
         <v>73</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -23683,13 +23683,13 @@
         <v>73</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL189" t="s" s="2">
         <v>73</v>
@@ -23720,7 +23720,7 @@
         <v>83</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>503</v>
@@ -23729,7 +23729,7 @@
         <v>504</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>309</v>
@@ -23793,7 +23793,7 @@
         <v>73</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>73</v>
@@ -23936,7 +23936,7 @@
         <v>73</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>813</v>
@@ -23969,7 +23969,7 @@
         <v>73</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X192" t="s" s="2">
         <v>815</v>
@@ -24148,13 +24148,13 @@
         <v>73</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -24205,7 +24205,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -24223,7 +24223,7 @@
         <v>73</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>73</v>
@@ -24235,7 +24235,7 @@
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24254,16 +24254,16 @@
         <v>73</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
@@ -24313,7 +24313,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -24325,13 +24325,13 @@
         <v>73</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>73</v>
@@ -24362,7 +24362,7 @@
         <v>83</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K196" t="s" s="2">
         <v>503</v>
@@ -24371,7 +24371,7 @@
         <v>504</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>309</v>
@@ -24435,7 +24435,7 @@
         <v>73</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>73</v>
@@ -24578,7 +24578,7 @@
         <v>73</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K198" t="s" s="2">
         <v>828</v>
@@ -24611,7 +24611,7 @@
         <v>73</v>
       </c>
       <c r="W198" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X198" t="s" s="2">
         <v>830</v>
@@ -24684,7 +24684,7 @@
         <v>73</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K199" t="s" s="2">
         <v>834</v>
@@ -24717,7 +24717,7 @@
         <v>73</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X199" t="s" s="2">
         <v>836</v>
@@ -24790,7 +24790,7 @@
         <v>73</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>795</v>
@@ -24896,7 +24896,7 @@
         <v>73</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K201" t="s" s="2">
         <v>844</v>
@@ -24929,7 +24929,7 @@
         <v>73</v>
       </c>
       <c r="W201" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X201" t="s" s="2">
         <v>846</v>
@@ -25108,7 +25108,7 @@
         <v>73</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K203" t="s" s="2">
         <v>795</v>
@@ -25426,7 +25426,7 @@
         <v>73</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K206" t="s" s="2">
         <v>795</v>
@@ -25532,7 +25532,7 @@
         <v>73</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K207" t="s" s="2">
         <v>863</v>
@@ -25565,7 +25565,7 @@
         <v>73</v>
       </c>
       <c r="W207" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X207" t="s" s="2">
         <v>865</v>
@@ -25638,7 +25638,7 @@
         <v>73</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K208" t="s" s="2">
         <v>868</v>
@@ -25671,7 +25671,7 @@
         <v>73</v>
       </c>
       <c r="W208" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X208" t="s" s="2">
         <v>870</v>
@@ -25850,7 +25850,7 @@
         <v>73</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K210" t="s" s="2">
         <v>795</v>
@@ -25956,7 +25956,7 @@
         <v>73</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K211" t="s" s="2">
         <v>879</v>
@@ -25989,7 +25989,7 @@
         <v>73</v>
       </c>
       <c r="W211" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X211" t="s" s="2">
         <v>836</v>
@@ -26168,7 +26168,7 @@
         <v>73</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K213" t="s" s="2">
         <v>885</v>
@@ -26274,7 +26274,7 @@
         <v>73</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>795</v>
@@ -26752,7 +26752,7 @@
         <v>83</v>
       </c>
       <c r="AD218" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE218" t="s" s="2">
         <v>899</v>
@@ -27344,13 +27344,13 @@
         <v>73</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -27401,7 +27401,7 @@
         <v>73</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>74</v>
@@ -27419,7 +27419,7 @@
         <v>73</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>73</v>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -27450,16 +27450,16 @@
         <v>73</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
@@ -27509,7 +27509,7 @@
         <v>73</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>74</v>
@@ -27521,13 +27521,13 @@
         <v>73</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>73</v>
@@ -27558,7 +27558,7 @@
         <v>83</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K226" t="s" s="2">
         <v>503</v>
@@ -27567,7 +27567,7 @@
         <v>504</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N226" t="s" s="2">
         <v>309</v>
@@ -27631,7 +27631,7 @@
         <v>73</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>73</v>
@@ -28092,13 +28092,13 @@
         <v>73</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -28149,7 +28149,7 @@
         <v>73</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>74</v>
@@ -28167,7 +28167,7 @@
         <v>73</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>73</v>
@@ -28179,7 +28179,7 @@
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -28198,16 +28198,16 @@
         <v>73</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
@@ -28257,7 +28257,7 @@
         <v>73</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>74</v>
@@ -28269,13 +28269,13 @@
         <v>73</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>73</v>
@@ -28306,7 +28306,7 @@
         <v>83</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K233" t="s" s="2">
         <v>503</v>
@@ -28315,7 +28315,7 @@
         <v>504</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N233" t="s" s="2">
         <v>309</v>
@@ -28379,7 +28379,7 @@
         <v>73</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>73</v>
@@ -28628,13 +28628,13 @@
         <v>73</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -28685,7 +28685,7 @@
         <v>73</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>74</v>
@@ -28703,7 +28703,7 @@
         <v>73</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL236" t="s" s="2">
         <v>73</v>
@@ -28715,7 +28715,7 @@
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -28734,16 +28734,16 @@
         <v>73</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
@@ -28793,7 +28793,7 @@
         <v>73</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>74</v>
@@ -28805,13 +28805,13 @@
         <v>73</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL237" t="s" s="2">
         <v>73</v>
@@ -28842,7 +28842,7 @@
         <v>83</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K238" t="s" s="2">
         <v>503</v>
@@ -28851,7 +28851,7 @@
         <v>504</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N238" t="s" s="2">
         <v>309</v>
@@ -28915,7 +28915,7 @@
         <v>73</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>73</v>
@@ -29164,13 +29164,13 @@
         <v>73</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -29221,7 +29221,7 @@
         <v>73</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>74</v>
@@ -29239,7 +29239,7 @@
         <v>73</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>73</v>
@@ -29251,7 +29251,7 @@
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -29270,16 +29270,16 @@
         <v>73</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" t="s" s="2">
@@ -29329,7 +29329,7 @@
         <v>73</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>74</v>
@@ -29341,13 +29341,13 @@
         <v>73</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>73</v>
@@ -29378,7 +29378,7 @@
         <v>83</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K243" t="s" s="2">
         <v>503</v>
@@ -29387,7 +29387,7 @@
         <v>504</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N243" t="s" s="2">
         <v>309</v>
@@ -29451,7 +29451,7 @@
         <v>73</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>73</v>
